--- a/docs/LTA1_C/LTA1_C_14.08.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790140.3027432</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731790140.4247072</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790140.3027432.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790140.4247072.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.15</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5300000000000296</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731790141.132936</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731790141.4264524</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790141.132936.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790141.4264524.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.17</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731790143.0906885</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731790143.7201936</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790143.0906885.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790143.7201936.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>282.72</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.17999999999995</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731790143.732162</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731790143.7953606</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790143.732162.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790143.7953606.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.72</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,95 +787,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731790143.8224754</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731790143.8224754.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731790143.8224754.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>282.35</v>
       </c>
-      <c r="J7" t="n">
-        <v>282.35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>282.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.08000000000004093</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731790144.0161774</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731790144.1059365</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790144.0161774.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790144.1059365.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.68</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5300000000000296</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731790144.6115835</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731790144.8220217</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790144.6115835.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790144.8220217.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.69</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.17</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731790145.9456806</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731790146.4967692</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790145.9456806.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790146.4967692.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>282.72</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.17999999999995</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731790146.5087104</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731790146.5695832</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790146.5087104.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790146.5695832.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>282.72</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>282.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731790146.5927982</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731790146.6831937</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790146.5927982.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790146.6831937.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>282.35</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>284.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731790149.6132307</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731790150.946824</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790149.6132307.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790150.946824.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>283.76</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>283.4</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1103,95 +1185,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731790150.9935853</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731790150.9935853.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731790150.9935853.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>283</v>
       </c>
-      <c r="J14" t="n">
-        <v>283</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.08999999999997499</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731790151.2782316</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731790154.2676897</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790151.2782316.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790154.2676897.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>131.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>130.94</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731790154.610604</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731790155.0932498</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790154.610604.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790155.0932498.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.76</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.91</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731790155.1489854</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731790155.1873806</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790155.1489854.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790155.1873806.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>130.98</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>130.74</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1303,95 +1409,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731790155.2009118</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731790155.2009118.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731790155.2009118.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>130.74</v>
       </c>
-      <c r="J18" t="n">
-        <v>130.74</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790156.2952628</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731790157.7829456</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790156.2952628.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790157.7829456.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6486.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6482.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790158.1279626</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790158.401959</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790158.1279626.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790158.401959.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6466.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6472</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>5.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790158.4149227</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731790158.469781</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790158.4149227.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790158.469781.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6472</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6469.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1503,95 +1633,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790158.592139</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790158.592139.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790158.592139.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6465.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>6465.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6461</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790159.1351442</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731790159.6454234</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790159.1351442.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790159.6454234.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>502.15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>503.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.650000000000034</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790161.6397927</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731790162.079232</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790161.6397927.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790162.079232.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>502.1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>501.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790162.09217</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731790162.138896</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790162.09217.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790162.138896.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>501.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>501.65</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1500000000000341</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1703,95 +1857,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790162.344799</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731790162.344799.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731790162.344799.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>501.55</v>
       </c>
-      <c r="J26" t="n">
-        <v>501.55</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790163.3487902</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731790166.0765085</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790163.3487902.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790166.0765085.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>225.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>224.66</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.140000000000015</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790166.089473</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731790166.2360718</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790166.089473.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790166.2360718.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>224.66</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>224.61</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.04999999999998295</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1851,95 +2023,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790166.2480397</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731790166.2480397.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731790166.2480397.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>224.61</v>
       </c>
-      <c r="J29" t="n">
-        <v>224.61</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>224.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790168.3106902</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731790168.9582562</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790168.3106902.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790168.9582562.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1068.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1060.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>7.400000000000091</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1947,51 +2131,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790169.6777208</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731790170.1513367</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790169.6777208.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790170.1513367.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1058.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1060</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790170.2090724</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731790170.4963899</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790170.2090724.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790170.4963899.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1058.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1059.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2051,43 +2247,49 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790170.5286028</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731790170.5286028.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731790170.5286028.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1060</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1060</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2095,51 +2297,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790170.9296315</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731790171.0137343</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790170.9296315.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790171.0137343.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>12.218</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>12.192</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.0259999999999998</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2147,95 +2355,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731790173.345995</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731790173.345995.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731790173.345995.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.163</v>
       </c>
-      <c r="J35" t="n">
-        <v>12.163</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>12.088</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.07500000000000107</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731790174.713809</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731790176.015588</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790174.713809.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790176.015588.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>127.04</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>127.72</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.6799999999999926</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -2243,51 +2463,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731790177.4126875</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731790178.5095344</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790177.4126875.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790178.5095344.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127.1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>126.24</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.8599999999999994</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -2295,43 +2521,49 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731790178.5868237</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731790178.5868237.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731790178.5868237.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>126.16</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>126.16</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2339,51 +2571,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731790179.3538532</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731790180.2752585</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790179.3538532.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790180.2752585.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>164.8</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>165.36</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2391,51 +2629,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731790181.1652324</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731790182.0652018</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790181.1652324.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.0652018.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>164.82</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>164.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.4199999999999875</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2443,51 +2687,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731790182.0771694</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731790182.1429076</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.0771694.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.1429076.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>164.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>164.12</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2495,51 +2745,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731790182.1558447</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731790182.2544172</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.1558447.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.2544172.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>164.12</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>164.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2547,51 +2803,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731790182.2673793</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731790182.3022947</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.2673793.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790182.3022947.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>164.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>164.14</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2600000000000193</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2599,95 +2861,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731790182.315263</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731790182.315263.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731790182.315263.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>164.14</v>
       </c>
-      <c r="J44" t="n">
-        <v>164.14</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>164.16</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731790183.4623897</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731790184.8952384</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790183.4623897.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790184.8952384.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.565</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2695,95 +2969,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731790185.1057184</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731790185.1057184.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731790185.1057184.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.24</v>
       </c>
-      <c r="J46" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>50.14</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731790188.786214</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731790189.461921</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790188.786214.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790189.461921.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1402</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2791,51 +3077,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731790189.474886</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731790189.5363688</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790189.474886.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790189.5363688.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1402</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1401</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2843,51 +3135,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731790189.5493317</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731790189.660946</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790189.5493317.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790189.660946.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1401</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1401.6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2895,43 +3193,49 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731790189.698259</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731790189.698259.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731790189.698259.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1401</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1401</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2939,51 +3243,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731790190.3952718</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731790191.1485848</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790190.3952718.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790191.1485848.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>59.6</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>59.78</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2991,51 +3301,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731790192.8213773</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731790193.7153618</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790192.8213773.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790193.7153618.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>59.64</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>59.59</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3043,51 +3359,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731790193.7740905</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731790193.809011</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790193.7740905.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790193.809011.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>59.62</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>59.57</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3095,95 +3417,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731790193.8219752</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731790193.8219752.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731790193.8219752.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>59.57</v>
       </c>
-      <c r="J54" t="n">
-        <v>59.57</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>59.59</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731790193.9524539</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731790194.543839</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790193.9524539.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790194.543839.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>101.45</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>100.98</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3191,51 +3525,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731790194.8758366</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731790197.075154</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790194.8758366.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790197.075154.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>101.58</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>101.21</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3243,51 +3583,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731790197.2557423</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731790197.6286561</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790197.2557423.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790197.6286561.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>101.11</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>101.25</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3295,51 +3641,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731790197.6416223</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731790197.7326627</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790197.6416223.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790197.7326627.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>101.25</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>101.15</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3347,139 +3699,157 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731790197.8284364</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731790197.8284364.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731790197.8284364.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>101.04</v>
       </c>
-      <c r="J59" t="n">
-        <v>101.04</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731790200.7254648</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731790200.7254648.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731790200.7254648.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>56.85</v>
       </c>
-      <c r="J60" t="n">
-        <v>56.85</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>56.71</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731790201.0482612</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731790201.2954197</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790201.0482612.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790201.2954197.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>159.12</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>158.1</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.02000000000001</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -3487,51 +3857,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731790201.3503764</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731790201.7985473</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790201.3503764.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790201.7985473.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>157.36</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>158.84</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>1.47999999999999</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -3539,51 +3915,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731790202.649935</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731790203.791377</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790202.649935.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790203.791377.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>157.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>157.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3591,51 +3973,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731790203.8039386</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731790203.8593698</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790203.8039386.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790203.8593698.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>157.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>156.98</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3643,51 +4031,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731790203.8713658</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731790203.9512246</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790203.8713658.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790203.9512246.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>156.98</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>157.28</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3695,51 +4089,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731790203.9641905</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731790204.0035172</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790203.9641905.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790204.0035172.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>157.28</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>156.78</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.5</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3747,139 +4147,157 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731790204.0164816</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731790204.0164816.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731790204.0164816.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>156.78</v>
       </c>
-      <c r="J67" t="n">
-        <v>156.78</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731790207.3669267</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731790207.3669267.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731790207.3669267.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.3096</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.3096</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.3093</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.000299999999999967</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731790207.547299</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731790211.0923402</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790207.547299.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790211.0923402.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.947</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>20.736</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2109999999999985</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -3887,51 +4305,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731790211.649062</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731790212.1139183</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790211.649062.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790212.1139183.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>20.733</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>20.753</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3939,95 +4363,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731790212.2488286</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731790212.2488286.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731790212.2488286.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>20.735</v>
       </c>
-      <c r="J71" t="n">
-        <v>20.735</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>20.717</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.01800000000000068</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731790212.3904037</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731790212.962939</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790212.3904037.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790212.962939.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>695.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>690.45</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>4.75</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -4035,51 +4471,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731790213.191669</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731790214.933798</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790213.191669.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790214.933798.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>693.95</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>691</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>2.950000000000045</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4087,95 +4529,107 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731790215.1804473</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731790215.1804473.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731790215.1804473.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>690.4</v>
       </c>
-      <c r="J74" t="n">
-        <v>690.4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>690.1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.2999999999999545</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731790217.2388802</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731790217.8030195</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790217.2388802.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790217.8030195.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>159.17</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>157.8</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.369999999999976</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -4183,44 +4637,50 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731790218.0984135</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731790218.0984135.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731790218.0984135.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>156.8</v>
       </c>
-      <c r="J76" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.5400000000000205</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.34</v>
       </c>
     </row>
   </sheetData>
@@ -4281,19 +4741,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.120000000000005</v>
+        <v>3.319999999999993</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4457142857142863</v>
+        <v>0.4742857142857133</v>
       </c>
       <c r="E2" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -4303,16 +4763,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.430000000000064</v>
+        <v>2.340000000000089</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3471428571428662</v>
+        <v>0.334285714285727</v>
       </c>
       <c r="E3" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F3" t="n">
         <v>0.12</v>
@@ -4325,16 +4785,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9600000000000364</v>
+        <v>0.9800000000000466</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1600000000000061</v>
+        <v>0.1633333333333411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -4347,19 +4807,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.090000000000089</v>
+        <v>1.010000000000048</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2180000000000177</v>
+        <v>0.2020000000000096</v>
       </c>
       <c r="E5" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4369,19 +4829,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.079999999999998</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2159999999999997</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="E6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -4413,19 +4873,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6499999999999773</v>
+        <v>0.7099999999999795</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1624999999999943</v>
+        <v>0.1774999999999949</v>
       </c>
       <c r="E8" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="F8" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -4435,19 +4895,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
@@ -4457,16 +4917,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04499999999999993</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="F10" t="n">
         <v>0.08</v>
@@ -4501,19 +4961,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.500000000000057</v>
+        <v>1.450000000000045</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3750000000000142</v>
+        <v>0.3625000000000114</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4523,19 +4983,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2309999999999981</v>
+        <v>0.2129999999999974</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07699999999999936</v>
+        <v>0.07099999999999913</v>
       </c>
       <c r="E13" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="F13" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
@@ -4567,19 +5027,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.090000000000032</v>
+        <v>-1.400000000000034</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3633333333333439</v>
+        <v>-0.4666666666666781</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.48</v>
+        <v>-0.62</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.16</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="16">
@@ -4589,19 +5049,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.700000000000045</v>
+        <v>7.400000000000091</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2.566666666666682</v>
+        <v>2.466666666666697</v>
       </c>
       <c r="E16" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="F16" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17">
@@ -4611,19 +5071,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.369999999999976</v>
+        <v>0.8299999999999557</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6849999999999881</v>
+        <v>0.4149999999999778</v>
       </c>
       <c r="E17" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="F17" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18">
@@ -4633,19 +5093,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1649999999999991</v>
+        <v>0.06499999999999773</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08249999999999957</v>
+        <v>0.03249999999999886</v>
       </c>
       <c r="E18" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
@@ -4655,19 +5115,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0259999999999998</v>
+        <v>-0.04900000000000126</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0129999999999999</v>
+        <v>-0.02450000000000063</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>-0.41</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="20">
@@ -4677,19 +5137,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="21">
@@ -4699,19 +5159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="22">
